--- a/revref_courseuseradd.xlsx
+++ b/revref_courseuseradd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0A9069-BC5F-4552-B3B2-0CD543261F05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BE663-BB2D-462B-8437-47D96303F19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="12990" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>header1</t>
   </si>
@@ -107,6 +107,289 @@
   </si>
   <si>
     <t>「学生」として登録してある利用者を「TA」に変更したい</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;作成中です&lt;/b&gt;</t>
+    <rPh sb="3" eb="6">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコースロールによって、各人がコースで何ができるのかが決まります
+広大 moodle に用意されているコースロールは、以下の通りです
+・主担当教員
+・世話教員
+・副担当教員
+・学生支援職員
+・ＴＡ
+・ＴＡ（作成補助）
+</t>
+  </si>
+  <si>
+    <t>コース名の下にある「参加者」をクリックすると、コースに登録されている学生・教職員を一覧することができます</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「もみじ」と連携したコースであれば、主担当教員、副担当教員、世話教員、履修登録した学生は自動的に登録されますが、TA や授業を補助する職員は自動登録されません
+したがって、TA や授業を補助する職員は、教員がコースで登録する必要があります
+ここではその登録方法を説明します</t>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「参加者」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ユーザを登録する」をクリックします</t>
+  </si>
+  <si>
+    <t>「ロールを割り当てる」のロール選択欄をクリックし、表示された候補の中で、学生を登録する場合は TA、職員を登録する場合は学生支援職員を選択します</t>
+  </si>
+  <si>
+    <t>選択内容を確認して、「選択したユーザおよびコーホートを登録する」をクリックします</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ユーザを選択する」の検索欄に登録したい人の広大 ID または氏名を入力し、表示される候補の中から、登録したい人を選択します&lt;br&gt;
+※候補に出てこない場合、すでに登録されていることがあります</t>
+    <rPh sb="68" eb="70">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下にある「参加者」をクリックして、参加者一覧を開きます</t>
+    <rPh sb="22" eb="25">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧の「広大ID」項目をクリックすると、広大ID順に並び変えができます</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒロダイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>もう一度クリックすると、昇順を降順に変更できます</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧は登録済みユーザの下の欄からフィルタを適用することができます</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例えば、&lt;b&gt;学生だけ表示したい場合&lt;/b&gt;、「選択」をクリックし、「ロール」を選択します
+「入力または選択…」の▼をクリックし、「学生」を選択します
+「フィルタを適用する」をクリックすることで、参加者の学生のみを表示することができます</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィルタを解除したい場合は、「フィルタをクリアする」をクリックしてください</t>
+    <rPh sb="5" eb="7">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>moodle のコースでは学生をグループ分けすることができます。そうすることで、グループワークをさせたり、グループごとに異なる教材を提示したりすることが可能です
+ここではグループ作成の方法をご説明します
+グループでは、メンバー間での共同作業をしたり、異なるグループのメンバーやその提出やフォーラム投稿を見えなくするなどの作用があります</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;グループを手動で作成する方法&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左上の「登録済みユーザ」をクリックし、「グループ」を選択します</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左側のボックスの下にある「グループを作成する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ名を入力し、画面下の「変更を保存する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;グループに学生を登録する方法&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左側のボックスでメンバーを登録したいグループをクリックして選択し、右側のボックス下の［ユーザを追加/削除する］をクリックします</t>
+  </si>
+  <si>
+    <t>画面左下の［グループに戻る］をクリックして確認します</t>
+  </si>
+  <si>
+    <t>右側のボックスで登録するユーザをクリックして選択し、［追加］をクリックします
+※Shiftキーを押しながらクリックすることで、複数人を同時に選択することができます</t>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除する場合は左側のボックスで削除するユーザをクリックして選択し、［削除］をクリックします</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -179,32 +462,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -224,9 +519,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -264,7 +559,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -370,7 +665,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,49 +821,49 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -582,105 +877,115 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="132" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -695,105 +1000,109 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -808,105 +1117,118 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -921,105 +1243,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1034,105 +1356,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1144,109 +1466,146 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1260,105 +1619,105 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1372,106 +1731,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="103.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1482,15 +1841,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1739,6 +2089,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1758,14 +2117,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1784,6 +2135,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/revref_courseuseradd.xlsx
+++ b/revref_courseuseradd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\仕事用\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241BE663-BB2D-462B-8437-47D96303F19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFCBFA7-7400-41EB-BC01-CA55DAEA1CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>header1</t>
   </si>
@@ -389,6 +389,65 @@
   </si>
   <si>
     <t>削除する場合は左側のボックスで削除するユーザをクリックして選択し、［削除］をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;「学生」として登録してある利用者のロールを「TA」に変更&lt;/h3&gt;</t>
+    <rPh sb="5" eb="7">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更したいロールをクリックし、削除の場合はロール名左側の×をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 変更を保存する場合はフロッピーアイコンをクリックし、変更をキャンセルする場合は×をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者一覧画面でロールが変更されていることが確認できます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>participant7.png</t>
+  </si>
+  <si>
+    <t>participant4.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>participant5.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>participant6.png</t>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「参加者」をクリックします
+変更したい参加者のロールの&lt;b&gt;「編集」（鉛筆のアイコン）&lt;/b&gt;をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サンカシャ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -519,9 +578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -559,7 +618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -665,7 +724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -807,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -821,13 +880,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -851,18 +910,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -880,17 +939,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -906,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -914,15 +973,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>19</v>
@@ -930,7 +989,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="132" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -938,7 +997,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -946,46 +1005,46 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1003,17 +1062,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1037,15 +1096,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -1053,7 +1112,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>27</v>
@@ -1061,7 +1120,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>28</v>
@@ -1069,40 +1128,40 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1120,17 +1179,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1154,15 +1213,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
         <v>20</v>
@@ -1170,7 +1229,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
@@ -1178,7 +1237,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
@@ -1186,49 +1245,49 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1246,17 +1305,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1280,15 +1339,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1296,52 +1355,52 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1359,17 +1418,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1393,15 +1452,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1409,52 +1468,52 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1468,21 +1527,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1506,15 +1565,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
         <v>32</v>
@@ -1522,13 +1581,13 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="13"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
         <v>33</v>
@@ -1536,7 +1595,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="13" t="s">
         <v>21</v>
@@ -1544,67 +1603,67 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -1622,17 +1681,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1656,15 +1715,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1672,52 +1731,52 @@
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1729,23 +1788,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="103.8984375" customWidth="1"/>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1769,69 +1826,85 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1841,6 +1914,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2089,34 +2189,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2133,23 +2225,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_courseuseradd.xlsx
+++ b/revref_courseuseradd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFCBFA7-7400-41EB-BC01-CA55DAEA1CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16276B0B-3DD2-402F-824A-1DC3E781C318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6840" activeTab="8" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
   <si>
     <t>header1</t>
   </si>
@@ -94,12 +94,6 @@
     <t>コースにTAや学生支援職員を登録したい</t>
   </si>
   <si>
-    <t>コースに学生や担当教員を手動で登録したい</t>
-  </si>
-  <si>
-    <t>コースに登録してある教員や学生を登録解除したい</t>
-  </si>
-  <si>
     <t>コース内に特定の学生からなるグループを作りたい</t>
   </si>
   <si>
@@ -107,13 +101,6 @@
   </si>
   <si>
     <t>「学生」として登録してある利用者を「TA」に変更したい</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;作成中です&lt;/b&gt;</t>
-    <rPh sb="3" eb="6">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">コースに登録されている学生・教職員には、コースロールが割り当てられます。このコースロールによって、各人がコースで何ができるのかが決まります
@@ -447,6 +434,488 @@
     </rPh>
     <rPh sb="15" eb="18">
       <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに学生や担当教員を手動で登録したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースに学生や担当教員を手動で登録する方法&lt;/h3&gt;</t>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに入ります</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「参加者」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ユーザを登録する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録したいユーザが複数いる場合は、登録対象者の検索を人数分繰り返します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースに登録してある教員や学生を登録解除したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースに学生や担当教員を手動で登録解除する方法&lt;/h3&gt;</t>
+    <rPh sb="25" eb="27">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「検索」欄に登録したいユーザの広大IDを入力します</t>
+    <rPh sb="15" eb="17">
+      <t>ヒロダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>候補に登録したいユーザが表示されたら、名前をクリックします
+※候補に出てこない場合は、すでに参加者として登録されているかmoodle上にユーザがまだ登録されていない可能性があります</t>
+    <rPh sb="31" eb="33">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解除する参加者の「ステータス」の丸に囲まれたiのマークをクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解除する参加者が1人の場合は、「ステータス」のごみ箱のマーク（登録解除）をクリックします
+「登録解除」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>バコ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>トウロクカイジョ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解除する参加者が複数人の場合は、解除する参加者にチェックマークを入れます
+「選択したユーザに対して…」で確認した登録方法（手動登録または自己登録）の「選択したユーザの登録を削除する」を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>トウロクホウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="65">
+      <t>シュドウトウロク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録方法」が「手動登録」または「自己登録」の場合、「キャンセル」をクリックします</t>
+    <rPh sb="8" eb="10">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ジコトウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上のユーザアイコンの右に表示されている「v」をクリックし、「プレファレンス」を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「その他」の中にある「コースの管理」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者を削除したいコースの「例外」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除したい参加者にチェックを入れます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「コース登録の例外を更新する」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;CSVでグループを一括作成する方法&lt;/h3&gt;</t>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まずはcsvファイルを作成してください</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例えば、group1～3を作成したい場合、CSVは以下のようになります
+&lt;blockquote&gt;
+groupname 
+group1
+group2
+group3
+&lt;/blockquote&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象のコースを開きます</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース名の下に表示されている「参加者」をクリックします</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録済みユーザ」をクリックして、「グループ」を選択します</t>
+    <rPh sb="1" eb="4">
+      <t>トウロクズ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「あなたはファイルをここにドラッグ＆ドロップして追加できます。」と表示されているところに作成したCSVファイルをドラッグ＆ドロップします</t>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルの最初のレコードは、フィールド名「groupname」します
+文字コードは「UTF-8」にしてください</t>
+    <rPh sb="35" eb="37">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「グループをインポートする」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コース内にグループを複数作りたい場合、CSVを使用して一括で作成することができます
+※作成できるグループ名は&lt;b&gt;アルファベットのみ&lt;/b&gt;で日本語では作成できません</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録方法によって解除する方法も違いますので、まずは参加者の登録方法を確認します</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクホウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>トウロクホウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="momiji"&gt;&lt;/a&gt;もみじから登録された参加者を解除する方法&lt;/h4&gt;</t>
+    <rPh sb="35" eb="38">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録方法」が「もみじ」の場合、もみじの講義情報から削除するかmoodle上でのみ解除する場合は&lt;a href=#momiji&gt;もみじから登録された参加者を解除する方法&lt;/a&gt;を参照してください</t>
+    <rPh sb="1" eb="5">
+      <t>トウロクホウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>コウギジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ロールを割り当てる」で、教員は「副担当教員」など教員に合わせてロールを選択し、学生の場合は「学生」を選びます</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -521,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +1028,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,7 +1459,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -992,7 +1467,7 @@
     <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1000,7 +1475,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1008,13 +1483,13 @@
     <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1107,7 +1582,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1115,7 +1590,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1123,7 +1598,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1224,7 +1699,7 @@
     <row r="7" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1232,7 +1707,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -1240,7 +1715,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1248,19 +1723,19 @@
     <row r="10" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1301,8 +1776,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="103.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A9EDB-E219-4750-9E93-E48F3540F6B4}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1320,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1350,171 +1958,101 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A9EDB-E219-4750-9E93-E48F3540F6B4}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="103.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
+      <c r="B21" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1546,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1576,7 +2114,7 @@
     <row r="7" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1590,7 +2128,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -1598,7 +2136,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -1606,19 +2144,19 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1627,31 +2165,31 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -1678,7 +2216,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1696,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1725,58 +2263,86 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="131.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
+      <c r="B11" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
+      <c r="B12" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
+      <c r="B13" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
+      <c r="B14" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -1790,7 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B381338-A85F-4BD4-8AB8-3FC08C5D562D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1807,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1837,7 +2403,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -1845,38 +2411,38 @@
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
